--- a/远程驱动通信接口/华润沈阳Dig1PLC1变量表_20240715.xlsx
+++ b/远程驱动通信接口/华润沈阳Dig1PLC1变量表_20240715.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Tao\Desktop\工作\24Q1\华润沈阳方形煤场料机无人值守系统项目\远程驱动系统\沈阳火电厂远程驱动\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C7DF7-1F85-47FC-AC67-F9EEBBC0C18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D8290B-824B-4F15-B126-A9C5AF328A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2370" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="2700" windowWidth="25980" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2254">
   <si>
     <t>Name</t>
   </si>
@@ -5487,9 +5487,6 @@
     <t>司机室下降按钮</t>
   </si>
   <si>
-    <t>%MW444</t>
-  </si>
-  <si>
     <t>%MW454</t>
   </si>
   <si>
@@ -5502,9 +5499,6 @@
     <t>%MW400</t>
   </si>
   <si>
-    <t>%MW418</t>
-  </si>
-  <si>
     <t>%MW428</t>
   </si>
   <si>
@@ -5823,9 +5817,6 @@
     <t>%M445</t>
   </si>
   <si>
-    <t>%MW500</t>
-  </si>
-  <si>
     <t>%M53</t>
   </si>
   <si>
@@ -5943,9 +5934,6 @@
     <t>%M2004</t>
   </si>
   <si>
-    <t>%MW504</t>
-  </si>
-  <si>
     <t>%M1700</t>
   </si>
   <si>
@@ -5970,9 +5958,6 @@
     <t>%M1720</t>
   </si>
   <si>
-    <t>%M1722</t>
-  </si>
-  <si>
     <t>%M1723</t>
   </si>
   <si>
@@ -6361,12 +6346,6 @@
   </si>
   <si>
     <t>%M295</t>
-  </si>
-  <si>
-    <t>%MW484</t>
-  </si>
-  <si>
-    <t>%MW498</t>
   </si>
   <si>
     <t>%M2018</t>
@@ -8725,6 +8704,58 @@
   </si>
   <si>
     <t>%M1761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%M1722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%MW418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大车行走距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机室角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大车电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬胶电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9327,8 +9358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531BEBBA-60AA-43BA-9117-AABCB19C41E3}">
   <dimension ref="A1:P407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9408,10 +9439,10 @@
         <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>952</v>
@@ -9420,7 +9451,7 @@
         <v>953</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>247</v>
@@ -9429,10 +9460,10 @@
         <v>955</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>164</v>
@@ -9443,19 +9474,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>967</v>
+        <v>2252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>1336</v>
+        <v>2243</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>142</v>
@@ -9473,16 +9504,16 @@
         <v>968</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>142</v>
@@ -9497,19 +9528,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>969</v>
+        <v>2253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>142</v>
@@ -9527,16 +9558,16 @@
         <v>970</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>142</v>
@@ -9551,19 +9582,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>971</v>
+        <v>2250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>142</v>
@@ -9581,16 +9612,16 @@
         <v>972</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>1341</v>
+        <v>2249</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>142</v>
@@ -9608,16 +9639,16 @@
         <v>973</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>142</v>
@@ -9635,16 +9666,16 @@
         <v>974</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>155</v>
@@ -9662,16 +9693,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>155</v>
@@ -9689,16 +9720,16 @@
         <v>975</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>155</v>
@@ -9716,16 +9747,16 @@
         <v>976</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>155</v>
@@ -9743,16 +9774,16 @@
         <v>977</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>155</v>
@@ -9770,16 +9801,16 @@
         <v>978</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>155</v>
@@ -9797,16 +9828,16 @@
         <v>979</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>155</v>
@@ -9824,16 +9855,16 @@
         <v>980</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>155</v>
@@ -9851,16 +9882,16 @@
         <v>981</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>155</v>
@@ -9878,16 +9909,16 @@
         <v>982</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>155</v>
@@ -9905,16 +9936,16 @@
         <v>983</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>155</v>
@@ -9932,16 +9963,16 @@
         <v>984</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>155</v>
@@ -9959,16 +9990,16 @@
         <v>985</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>155</v>
@@ -9986,16 +10017,16 @@
         <v>986</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>155</v>
@@ -10013,16 +10044,16 @@
         <v>987</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>155</v>
@@ -10040,16 +10071,16 @@
         <v>988</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>155</v>
@@ -10067,16 +10098,16 @@
         <v>989</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>155</v>
@@ -10094,16 +10125,16 @@
         <v>990</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>155</v>
@@ -10121,16 +10152,16 @@
         <v>991</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>155</v>
@@ -10148,16 +10179,16 @@
         <v>992</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>155</v>
@@ -10175,16 +10206,16 @@
         <v>993</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>155</v>
@@ -10202,16 +10233,16 @@
         <v>994</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>155</v>
@@ -10229,16 +10260,16 @@
         <v>995</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>155</v>
@@ -10256,16 +10287,16 @@
         <v>996</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>155</v>
@@ -10283,16 +10314,16 @@
         <v>997</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H39" s="22" t="s">
         <v>155</v>
@@ -10310,16 +10341,16 @@
         <v>998</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>155</v>
@@ -10337,16 +10368,16 @@
         <v>999</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>155</v>
@@ -10364,16 +10395,16 @@
         <v>1000</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>155</v>
@@ -10391,16 +10422,16 @@
         <v>1001</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>155</v>
@@ -10418,16 +10449,16 @@
         <v>1002</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>155</v>
@@ -10445,16 +10476,16 @@
         <v>1003</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H45" s="22" t="s">
         <v>155</v>
@@ -10472,16 +10503,16 @@
         <v>1004</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>155</v>
@@ -10499,16 +10530,16 @@
         <v>1005</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>155</v>
@@ -10526,16 +10557,16 @@
         <v>1006</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>155</v>
@@ -10553,16 +10584,16 @@
         <v>1007</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H49" s="22" t="s">
         <v>155</v>
@@ -10580,16 +10611,16 @@
         <v>1008</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>155</v>
@@ -10607,16 +10638,16 @@
         <v>1009</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>155</v>
@@ -10634,16 +10665,16 @@
         <v>1010</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>155</v>
@@ -10661,16 +10692,16 @@
         <v>1011</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>155</v>
@@ -10688,16 +10719,16 @@
         <v>1012</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>155</v>
@@ -10715,16 +10746,16 @@
         <v>1013</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>155</v>
@@ -10742,16 +10773,16 @@
         <v>1014</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>155</v>
@@ -10769,16 +10800,16 @@
         <v>1015</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>155</v>
@@ -10796,16 +10827,16 @@
         <v>1016</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>155</v>
@@ -10823,16 +10854,16 @@
         <v>1017</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>155</v>
@@ -10850,16 +10881,16 @@
         <v>1018</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>155</v>
@@ -10877,16 +10908,16 @@
         <v>1019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>155</v>
@@ -10904,16 +10935,16 @@
         <v>1020</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>155</v>
@@ -10931,16 +10962,16 @@
         <v>1021</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H63" s="22" t="s">
         <v>155</v>
@@ -10958,16 +10989,16 @@
         <v>1022</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>155</v>
@@ -10985,16 +11016,16 @@
         <v>1023</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>155</v>
@@ -11012,16 +11043,16 @@
         <v>1024</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>155</v>
@@ -11039,16 +11070,16 @@
         <v>1025</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H67" s="22" t="s">
         <v>155</v>
@@ -11066,16 +11097,16 @@
         <v>1026</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>155</v>
@@ -11093,16 +11124,16 @@
         <v>1027</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H69" s="22" t="s">
         <v>155</v>
@@ -11120,16 +11151,16 @@
         <v>1028</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>155</v>
@@ -11147,16 +11178,16 @@
         <v>1029</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H71" s="22" t="s">
         <v>155</v>
@@ -11174,16 +11205,16 @@
         <v>1030</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>155</v>
@@ -11201,16 +11232,16 @@
         <v>1031</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>155</v>
@@ -11228,16 +11259,16 @@
         <v>1032</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>155</v>
@@ -11255,16 +11286,16 @@
         <v>1033</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>155</v>
@@ -11282,16 +11313,16 @@
         <v>48</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>155</v>
@@ -11309,16 +11340,16 @@
         <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>155</v>
@@ -11336,16 +11367,16 @@
         <v>50</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="H78" s="22" t="s">
         <v>155</v>
@@ -11363,16 +11394,16 @@
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>155</v>
@@ -11390,16 +11421,16 @@
         <v>1034</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>155</v>
@@ -11417,16 +11448,16 @@
         <v>1035</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>155</v>
@@ -11444,16 +11475,16 @@
         <v>1036</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>155</v>
@@ -11471,16 +11502,16 @@
         <v>1037</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H83" s="22" t="s">
         <v>155</v>
@@ -11498,16 +11529,16 @@
         <v>1038</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H84" s="22" t="s">
         <v>155</v>
@@ -11525,16 +11556,16 @@
         <v>1039</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="H85" s="22" t="s">
         <v>155</v>
@@ -11552,16 +11583,16 @@
         <v>1040</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="H86" s="22" t="s">
         <v>155</v>
@@ -11579,16 +11610,16 @@
         <v>1041</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>155</v>
@@ -11606,16 +11637,16 @@
         <v>1042</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H88" s="22" t="s">
         <v>155</v>
@@ -11633,16 +11664,16 @@
         <v>1043</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H89" s="22" t="s">
         <v>155</v>
@@ -11660,16 +11691,16 @@
         <v>1044</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>155</v>
@@ -11687,16 +11718,16 @@
         <v>1045</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>155</v>
@@ -11714,16 +11745,16 @@
         <v>1046</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H92" s="22" t="s">
         <v>155</v>
@@ -11741,16 +11772,16 @@
         <v>1047</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="H93" s="22" t="s">
         <v>155</v>
@@ -11768,16 +11799,16 @@
         <v>1048</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H94" s="22" t="s">
         <v>155</v>
@@ -11795,16 +11826,16 @@
         <v>1049</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="H95" s="22" t="s">
         <v>155</v>
@@ -11822,16 +11853,16 @@
         <v>1050</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H96" s="22" t="s">
         <v>155</v>
@@ -11849,16 +11880,16 @@
         <v>1051</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>155</v>
@@ -11876,16 +11907,16 @@
         <v>1052</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="H98" s="22" t="s">
         <v>155</v>
@@ -11903,16 +11934,16 @@
         <v>1053</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="H99" s="22" t="s">
         <v>155</v>
@@ -11930,16 +11961,16 @@
         <v>1054</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="H100" s="22" t="s">
         <v>155</v>
@@ -11957,16 +11988,16 @@
         <v>1055</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="H101" s="22" t="s">
         <v>155</v>
@@ -11984,16 +12015,16 @@
         <v>1056</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H102" s="22" t="s">
         <v>155</v>
@@ -12011,16 +12042,16 @@
         <v>1057</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="H103" s="22" t="s">
         <v>155</v>
@@ -12038,16 +12069,16 @@
         <v>1058</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>155</v>
@@ -12065,16 +12096,16 @@
         <v>1059</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>155</v>
@@ -12092,16 +12123,16 @@
         <v>1060</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>155</v>
@@ -12119,16 +12150,16 @@
         <v>1061</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>155</v>
@@ -12146,16 +12177,16 @@
         <v>1062</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>155</v>
@@ -12173,16 +12204,16 @@
         <v>1063</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>155</v>
@@ -12200,16 +12231,16 @@
         <v>1064</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>155</v>
@@ -12227,16 +12258,16 @@
         <v>1065</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>155</v>
@@ -12254,16 +12285,16 @@
         <v>1066</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>155</v>
@@ -12281,16 +12312,16 @@
         <v>1067</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>155</v>
@@ -12308,16 +12339,16 @@
         <v>1068</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>155</v>
@@ -12335,16 +12366,16 @@
         <v>1069</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>155</v>
@@ -12362,16 +12393,16 @@
         <v>1070</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>155</v>
@@ -12389,16 +12420,16 @@
         <v>1071</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>155</v>
@@ -12416,16 +12447,16 @@
         <v>1072</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>155</v>
@@ -12443,16 +12474,16 @@
         <v>1073</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>155</v>
@@ -12470,19 +12501,19 @@
         <v>1074</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>1448</v>
+        <v>2247</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>142</v>
+        <v>381</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>381</v>
@@ -12497,16 +12528,16 @@
         <v>1075</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>155</v>
@@ -12524,16 +12555,16 @@
         <v>1076</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>155</v>
@@ -12551,16 +12582,16 @@
         <v>1077</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>155</v>
@@ -12578,16 +12609,16 @@
         <v>1078</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>155</v>
@@ -12605,16 +12636,16 @@
         <v>1079</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>155</v>
@@ -12623,7 +12654,7 @@
         <v>249</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12634,16 +12665,16 @@
         <v>1080</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>155</v>
@@ -12652,7 +12683,7 @@
         <v>249</v>
       </c>
       <c r="J126" s="25" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12663,16 +12694,16 @@
         <v>1081</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>155</v>
@@ -12690,16 +12721,16 @@
         <v>1082</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>155</v>
@@ -12717,16 +12748,16 @@
         <v>1083</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>155</v>
@@ -12744,16 +12775,16 @@
         <v>1084</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>155</v>
@@ -12771,16 +12802,16 @@
         <v>1085</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>155</v>
@@ -12789,7 +12820,7 @@
         <v>249</v>
       </c>
       <c r="J131" s="25" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12800,16 +12831,16 @@
         <v>1086</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>155</v>
@@ -12818,7 +12849,7 @@
         <v>249</v>
       </c>
       <c r="J132" s="25" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12829,16 +12860,16 @@
         <v>1087</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>155</v>
@@ -12856,16 +12887,16 @@
         <v>1088</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>155</v>
@@ -12883,16 +12914,16 @@
         <v>1089</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>155</v>
@@ -12910,16 +12941,16 @@
         <v>1090</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="H136" s="22" t="s">
         <v>155</v>
@@ -12928,7 +12959,7 @@
         <v>249</v>
       </c>
       <c r="J136" s="25" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12939,16 +12970,16 @@
         <v>1091</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="H137" s="22" t="s">
         <v>155</v>
@@ -12957,7 +12988,7 @@
         <v>249</v>
       </c>
       <c r="J137" s="25" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -12968,16 +12999,16 @@
         <v>61</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H138" s="22" t="s">
         <v>155</v>
@@ -12995,16 +13026,16 @@
         <v>11</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E139" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H139" s="22" t="s">
         <v>155</v>
@@ -13022,16 +13053,16 @@
         <v>1092</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E140" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H140" s="22" t="s">
         <v>155</v>
@@ -13049,16 +13080,16 @@
         <v>1093</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="H141" s="22" t="s">
         <v>155</v>
@@ -13076,16 +13107,16 @@
         <v>1094</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E142" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="H142" s="22" t="s">
         <v>155</v>
@@ -13103,16 +13134,16 @@
         <v>1095</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E143" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H143" s="22" t="s">
         <v>155</v>
@@ -13130,16 +13161,16 @@
         <v>1096</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E144" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H144" s="22" t="s">
         <v>155</v>
@@ -13154,19 +13185,19 @@
         <v>138</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="H145" s="22" t="s">
         <v>155</v>
@@ -13175,7 +13206,7 @@
         <v>249</v>
       </c>
       <c r="J145" s="25" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -13186,16 +13217,16 @@
         <v>1098</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H146" s="22" t="s">
         <v>155</v>
@@ -13213,16 +13244,16 @@
         <v>1099</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H147" s="22" t="s">
         <v>155</v>
@@ -13240,16 +13271,16 @@
         <v>1100</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>155</v>
@@ -13267,16 +13298,16 @@
         <v>1101</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H149" s="22" t="s">
         <v>155</v>
@@ -13294,16 +13325,16 @@
         <v>1102</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H150" s="22" t="s">
         <v>155</v>
@@ -13321,16 +13352,16 @@
         <v>1103</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E151" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H151" s="22" t="s">
         <v>155</v>
@@ -13348,16 +13379,16 @@
         <v>1104</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E152" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H152" s="22" t="s">
         <v>155</v>
@@ -13378,13 +13409,13 @@
         <v>646</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E153" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H153" s="22" t="s">
         <v>155</v>
@@ -13402,16 +13433,16 @@
         <v>1106</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E154" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H154" s="22" t="s">
         <v>155</v>
@@ -13429,16 +13460,16 @@
         <v>1107</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E155" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>155</v>
@@ -13456,16 +13487,16 @@
         <v>1108</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E156" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H156" s="22" t="s">
         <v>155</v>
@@ -13483,16 +13514,16 @@
         <v>1109</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E157" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>155</v>
@@ -13510,16 +13541,16 @@
         <v>1110</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E158" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H158" s="22" t="s">
         <v>155</v>
@@ -13537,16 +13568,16 @@
         <v>1111</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E159" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H159" s="22" t="s">
         <v>155</v>
@@ -13564,16 +13595,16 @@
         <v>1112</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E160" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>1488</v>
+        <v>2242</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>381</v>
@@ -13587,20 +13618,20 @@
       <c r="A161" s="1">
         <v>154</v>
       </c>
-      <c r="B161" s="19" t="s">
-        <v>1633</v>
+      <c r="B161" s="22" t="s">
+        <v>1626</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H161" s="22" t="s">
         <v>155</v>
@@ -13614,20 +13645,20 @@
       <c r="A162" s="1">
         <v>155</v>
       </c>
-      <c r="B162" s="19" t="s">
-        <v>1634</v>
+      <c r="B162" s="22" t="s">
+        <v>1627</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>155</v>
@@ -13641,20 +13672,20 @@
       <c r="A163" s="1">
         <v>156</v>
       </c>
-      <c r="B163" s="19" t="s">
-        <v>1635</v>
+      <c r="B163" s="22" t="s">
+        <v>1628</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H163" s="22" t="s">
         <v>155</v>
@@ -13668,20 +13699,20 @@
       <c r="A164" s="1">
         <v>157</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>1636</v>
+      <c r="B164" s="22" t="s">
+        <v>1629</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H164" s="22" t="s">
         <v>155</v>
@@ -13695,20 +13726,20 @@
       <c r="A165" s="1">
         <v>158</v>
       </c>
-      <c r="B165" s="19" t="s">
-        <v>1637</v>
+      <c r="B165" s="22" t="s">
+        <v>1630</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E165" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H165" s="22" t="s">
         <v>155</v>
@@ -13722,20 +13753,20 @@
       <c r="A166" s="1">
         <v>159</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>1638</v>
+      <c r="B166" s="22" t="s">
+        <v>1631</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E166" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H166" s="22" t="s">
         <v>155</v>
@@ -13749,20 +13780,20 @@
       <c r="A167" s="1">
         <v>160</v>
       </c>
-      <c r="B167" s="19" t="s">
-        <v>1639</v>
+      <c r="B167" s="22" t="s">
+        <v>1632</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E167" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G167" s="22" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H167" s="22" t="s">
         <v>155</v>
@@ -13776,20 +13807,20 @@
       <c r="A168" s="1">
         <v>161</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>1640</v>
+      <c r="B168" s="22" t="s">
+        <v>1633</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E168" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G168" s="22" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H168" s="22" t="s">
         <v>155</v>
@@ -13803,20 +13834,20 @@
       <c r="A169" s="1">
         <v>162</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>1641</v>
+      <c r="B169" s="22" t="s">
+        <v>1634</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E169" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>1497</v>
+        <v>2246</v>
       </c>
       <c r="H169" s="22" t="s">
         <v>155</v>
@@ -13830,20 +13861,20 @@
       <c r="A170" s="1">
         <v>163</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>1642</v>
+      <c r="B170" s="22" t="s">
+        <v>1635</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G170" s="22" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="H170" s="22" t="s">
         <v>155</v>
@@ -13857,20 +13888,20 @@
       <c r="A171" s="1">
         <v>164</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>1643</v>
+      <c r="B171" s="22" t="s">
+        <v>1636</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E171" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G171" s="22" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="H171" s="22" t="s">
         <v>155</v>
@@ -13884,20 +13915,20 @@
       <c r="A172" s="1">
         <v>165</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>1644</v>
+      <c r="B172" s="22" t="s">
+        <v>1637</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E172" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="H172" s="22" t="s">
         <v>155</v>
@@ -13911,20 +13942,20 @@
       <c r="A173" s="1">
         <v>166</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>1645</v>
+      <c r="B173" s="22" t="s">
+        <v>1638</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E173" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="H173" s="22" t="s">
         <v>155</v>
@@ -13938,20 +13969,20 @@
       <c r="A174" s="1">
         <v>167</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>1646</v>
+      <c r="B174" s="22" t="s">
+        <v>1639</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E174" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G174" s="22" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="H174" s="22" t="s">
         <v>155</v>
@@ -13965,20 +13996,20 @@
       <c r="A175" s="1">
         <v>168</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>1647</v>
+      <c r="B175" s="22" t="s">
+        <v>1640</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E175" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="H175" s="22" t="s">
         <v>155</v>
@@ -13992,20 +14023,20 @@
       <c r="A176" s="1">
         <v>169</v>
       </c>
-      <c r="B176" s="19" t="s">
-        <v>1648</v>
+      <c r="B176" s="22" t="s">
+        <v>1641</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E176" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>155</v>
@@ -14023,16 +14054,16 @@
         <v>1129</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E177" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G177" s="22" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="H177" s="22" t="s">
         <v>155</v>
@@ -14050,16 +14081,16 @@
         <v>1130</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E178" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="H178" s="22" t="s">
         <v>155</v>
@@ -14077,16 +14108,16 @@
         <v>1131</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E179" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G179" s="22" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="H179" s="22" t="s">
         <v>155</v>
@@ -14104,16 +14135,16 @@
         <v>1132</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E180" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G180" s="22" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>155</v>
@@ -14131,16 +14162,16 @@
         <v>1133</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E181" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G181" s="22" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>155</v>
@@ -14158,16 +14189,16 @@
         <v>1134</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E182" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G182" s="22" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="H182" s="22" t="s">
         <v>155</v>
@@ -14185,16 +14216,16 @@
         <v>1135</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E183" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="H183" s="22" t="s">
         <v>155</v>
@@ -14212,16 +14243,16 @@
         <v>1136</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E184" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="H184" s="22" t="s">
         <v>155</v>
@@ -14239,16 +14270,16 @@
         <v>1137</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E185" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G185" s="22" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="H185" s="22" t="s">
         <v>155</v>
@@ -14257,7 +14288,7 @@
         <v>249</v>
       </c>
       <c r="J185" s="25" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -14268,16 +14299,16 @@
         <v>1138</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E186" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G186" s="22" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="H186" s="22" t="s">
         <v>155</v>
@@ -14286,7 +14317,7 @@
         <v>249</v>
       </c>
       <c r="J186" s="25" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -14297,16 +14328,16 @@
         <v>1139</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E187" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="H187" s="22" t="s">
         <v>155</v>
@@ -14324,16 +14355,16 @@
         <v>1140</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E188" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G188" s="22" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="H188" s="22" t="s">
         <v>155</v>
@@ -14351,16 +14382,16 @@
         <v>1141</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E189" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>155</v>
@@ -14378,16 +14409,16 @@
         <v>1142</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E190" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G190" s="22" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>155</v>
@@ -14405,16 +14436,16 @@
         <v>1143</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E191" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G191" s="22" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="H191" s="22" t="s">
         <v>155</v>
@@ -14432,16 +14463,16 @@
         <v>1144</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E192" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="H192" s="22" t="s">
         <v>155</v>
@@ -14459,16 +14490,16 @@
         <v>1145</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="H193" s="22" t="s">
         <v>155</v>
@@ -14486,16 +14517,16 @@
         <v>1146</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E194" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G194" s="22" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="H194" s="22" t="s">
         <v>155</v>
@@ -14513,16 +14544,16 @@
         <v>1147</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E195" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G195" s="22" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="H195" s="22" t="s">
         <v>155</v>
@@ -14540,16 +14571,16 @@
         <v>1148</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E196" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="H196" s="22" t="s">
         <v>155</v>
@@ -14567,16 +14598,16 @@
         <v>1149</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="H197" s="22" t="s">
         <v>155</v>
@@ -14594,16 +14625,16 @@
         <v>1150</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="H198" s="22" t="s">
         <v>155</v>
@@ -14621,16 +14652,16 @@
         <v>1151</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="H199" s="22" t="s">
         <v>155</v>
@@ -14648,16 +14679,16 @@
         <v>1152</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="H200" s="22" t="s">
         <v>155</v>
@@ -14671,20 +14702,20 @@
       <c r="A201" s="1">
         <v>194</v>
       </c>
-      <c r="B201" s="19" t="s">
-        <v>1649</v>
+      <c r="B201" s="22" t="s">
+        <v>1642</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="H201" s="22" t="s">
         <v>155</v>
@@ -14698,20 +14729,20 @@
       <c r="A202" s="1">
         <v>195</v>
       </c>
-      <c r="B202" s="19" t="s">
-        <v>1650</v>
+      <c r="B202" s="22" t="s">
+        <v>1643</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>155</v>
@@ -14725,20 +14756,20 @@
       <c r="A203" s="1">
         <v>196</v>
       </c>
-      <c r="B203" s="19" t="s">
-        <v>1651</v>
+      <c r="B203" s="22" t="s">
+        <v>1644</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="H203" s="22" t="s">
         <v>155</v>
@@ -14756,16 +14787,16 @@
         <v>1156</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E204" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G204" s="22" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H204" s="22" t="s">
         <v>155</v>
@@ -14783,16 +14814,16 @@
         <v>1157</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E205" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="H205" s="22" t="s">
         <v>155</v>
@@ -14806,20 +14837,20 @@
       <c r="A206" s="1">
         <v>199</v>
       </c>
-      <c r="B206" s="19" t="s">
-        <v>1652</v>
+      <c r="B206" s="22" t="s">
+        <v>1645</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>155</v>
@@ -14833,20 +14864,20 @@
       <c r="A207" s="1">
         <v>200</v>
       </c>
-      <c r="B207" s="19" t="s">
-        <v>1653</v>
+      <c r="B207" s="22" t="s">
+        <v>1646</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E207" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="H207" s="22" t="s">
         <v>155</v>
@@ -14860,20 +14891,20 @@
       <c r="A208" s="1">
         <v>201</v>
       </c>
-      <c r="B208" s="19" t="s">
-        <v>1654</v>
+      <c r="B208" s="22" t="s">
+        <v>1647</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E208" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="H208" s="22" t="s">
         <v>155</v>
@@ -14887,20 +14918,20 @@
       <c r="A209" s="1">
         <v>202</v>
       </c>
-      <c r="B209" s="19" t="s">
-        <v>1655</v>
+      <c r="B209" s="22" t="s">
+        <v>1648</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>155</v>
@@ -14914,20 +14945,20 @@
       <c r="A210" s="1">
         <v>203</v>
       </c>
-      <c r="B210" s="19" t="s">
-        <v>1656</v>
+      <c r="B210" s="22" t="s">
+        <v>1649</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E210" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>155</v>
@@ -14941,20 +14972,20 @@
       <c r="A211" s="1">
         <v>204</v>
       </c>
-      <c r="B211" s="19" t="s">
-        <v>1657</v>
+      <c r="B211" s="22" t="s">
+        <v>1650</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E211" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>155</v>
@@ -14968,20 +14999,20 @@
       <c r="A212" s="1">
         <v>205</v>
       </c>
-      <c r="B212" s="19" t="s">
-        <v>1658</v>
+      <c r="B212" s="22" t="s">
+        <v>1651</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G212" s="22" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>155</v>
@@ -14995,20 +15026,20 @@
       <c r="A213" s="1">
         <v>206</v>
       </c>
-      <c r="B213" s="19" t="s">
-        <v>1659</v>
+      <c r="B213" s="22" t="s">
+        <v>1652</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>155</v>
@@ -15022,20 +15053,20 @@
       <c r="A214" s="1">
         <v>207</v>
       </c>
-      <c r="B214" s="19" t="s">
-        <v>1660</v>
+      <c r="B214" s="22" t="s">
+        <v>1653</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E214" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G214" s="22" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="H214" s="22" t="s">
         <v>155</v>
@@ -15049,20 +15080,20 @@
       <c r="A215" s="1">
         <v>208</v>
       </c>
-      <c r="B215" s="19" t="s">
-        <v>1661</v>
+      <c r="B215" s="22" t="s">
+        <v>1654</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E215" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H215" s="22" t="s">
         <v>155</v>
@@ -15076,20 +15107,20 @@
       <c r="A216" s="1">
         <v>209</v>
       </c>
-      <c r="B216" s="19" t="s">
-        <v>1662</v>
+      <c r="B216" s="22" t="s">
+        <v>1655</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E216" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G216" s="22" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H216" s="22" t="s">
         <v>155</v>
@@ -15103,20 +15134,20 @@
       <c r="A217" s="1">
         <v>210</v>
       </c>
-      <c r="B217" s="19" t="s">
-        <v>1663</v>
+      <c r="B217" s="22" t="s">
+        <v>1656</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E217" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>155</v>
@@ -15130,20 +15161,20 @@
       <c r="A218" s="1">
         <v>211</v>
       </c>
-      <c r="B218" s="19" t="s">
-        <v>1664</v>
+      <c r="B218" s="22" t="s">
+        <v>1657</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G218" s="22" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="H218" s="22" t="s">
         <v>155</v>
@@ -15161,16 +15192,16 @@
         <v>1171</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E219" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G219" s="22" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="H219" s="22" t="s">
         <v>155</v>
@@ -15188,16 +15219,16 @@
         <v>1172</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E220" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H220" s="22" t="s">
         <v>155</v>
@@ -15215,16 +15246,16 @@
         <v>1173</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E221" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G221" s="22" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H221" s="22" t="s">
         <v>155</v>
@@ -15242,16 +15273,16 @@
         <v>1174</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G222" s="22" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H222" s="22" t="s">
         <v>155</v>
@@ -15269,16 +15300,16 @@
         <v>1175</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G223" s="22" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="H223" s="22" t="s">
         <v>155</v>
@@ -15296,16 +15327,16 @@
         <v>1176</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G224" s="22" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H224" s="22" t="s">
         <v>155</v>
@@ -15323,16 +15354,16 @@
         <v>1177</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H225" s="22" t="s">
         <v>155</v>
@@ -15350,16 +15381,16 @@
         <v>1178</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E226" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="H226" s="22" t="s">
         <v>155</v>
@@ -15377,16 +15408,16 @@
         <v>1179</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E227" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="H227" s="22" t="s">
         <v>155</v>
@@ -15404,16 +15435,16 @@
         <v>1180</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E228" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G228" s="22" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H228" s="22" t="s">
         <v>155</v>
@@ -15427,23 +15458,23 @@
       <c r="A229" s="1">
         <v>222</v>
       </c>
-      <c r="B229" s="19" t="s">
-        <v>1665</v>
+      <c r="B229" s="22" t="s">
+        <v>1658</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E229" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="G229" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H229" s="22" t="s">
         <v>155</v>
@@ -15457,23 +15488,23 @@
       <c r="A230" s="1">
         <v>223</v>
       </c>
-      <c r="B230" s="19" t="s">
-        <v>1666</v>
+      <c r="B230" s="22" t="s">
+        <v>1659</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E230" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F230" s="24" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="G230" s="22" t="s">
-        <v>1556</v>
+        <v>2241</v>
       </c>
       <c r="H230" s="22" t="s">
         <v>155</v>
@@ -15488,22 +15519,22 @@
         <v>224</v>
       </c>
       <c r="B231" s="22" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E231" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F231" s="24" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="G231" s="22" t="s">
-        <v>1556</v>
+        <v>2241</v>
       </c>
       <c r="H231" s="22" t="s">
         <v>155</v>
@@ -15517,23 +15548,23 @@
       <c r="A232" s="1">
         <v>225</v>
       </c>
-      <c r="B232" s="19" t="s">
-        <v>1667</v>
+      <c r="B232" s="22" t="s">
+        <v>1660</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E232" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="G232" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H232" s="22" t="s">
         <v>155</v>
@@ -15547,23 +15578,23 @@
       <c r="A233" s="1">
         <v>226</v>
       </c>
-      <c r="B233" s="19" t="s">
-        <v>1668</v>
+      <c r="B233" s="22" t="s">
+        <v>1661</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E233" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F233" s="24" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="G233" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H233" s="22" t="s">
         <v>155</v>
@@ -15577,23 +15608,23 @@
       <c r="A234" s="1">
         <v>227</v>
       </c>
-      <c r="B234" s="19" t="s">
-        <v>1669</v>
+      <c r="B234" s="22" t="s">
+        <v>1662</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E234" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F234" s="24" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="G234" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H234" s="22" t="s">
         <v>155</v>
@@ -15607,23 +15638,23 @@
       <c r="A235" s="1">
         <v>228</v>
       </c>
-      <c r="B235" s="19" t="s">
-        <v>1670</v>
+      <c r="B235" s="22" t="s">
+        <v>1663</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E235" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="G235" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H235" s="22" t="s">
         <v>155</v>
@@ -15637,23 +15668,23 @@
       <c r="A236" s="1">
         <v>229</v>
       </c>
-      <c r="B236" s="19" t="s">
-        <v>1671</v>
+      <c r="B236" s="22" t="s">
+        <v>1664</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E236" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F236" s="24" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="G236" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H236" s="22" t="s">
         <v>155</v>
@@ -15667,23 +15698,23 @@
       <c r="A237" s="1">
         <v>230</v>
       </c>
-      <c r="B237" s="19" t="s">
-        <v>1672</v>
+      <c r="B237" s="22" t="s">
+        <v>1665</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E237" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F237" s="24" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="G237" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H237" s="22" t="s">
         <v>155</v>
@@ -15692,30 +15723,30 @@
         <v>249</v>
       </c>
       <c r="J237" s="25" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>231</v>
       </c>
-      <c r="B238" s="19" t="s">
-        <v>1673</v>
+      <c r="B238" s="22" t="s">
+        <v>1666</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E238" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="G238" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H238" s="22" t="s">
         <v>155</v>
@@ -15729,23 +15760,23 @@
       <c r="A239" s="1">
         <v>232</v>
       </c>
-      <c r="B239" s="19" t="s">
-        <v>1674</v>
+      <c r="B239" s="22" t="s">
+        <v>1667</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E239" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="G239" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H239" s="22" t="s">
         <v>155</v>
@@ -15759,23 +15790,23 @@
       <c r="A240" s="1">
         <v>233</v>
       </c>
-      <c r="B240" s="19" t="s">
-        <v>1675</v>
+      <c r="B240" s="22" t="s">
+        <v>1668</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E240" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="G240" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H240" s="22" t="s">
         <v>155</v>
@@ -15789,23 +15820,23 @@
       <c r="A241" s="1">
         <v>234</v>
       </c>
-      <c r="B241" s="19" t="s">
-        <v>1676</v>
+      <c r="B241" s="22" t="s">
+        <v>1669</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E241" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="G241" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H241" s="22" t="s">
         <v>155</v>
@@ -15819,23 +15850,23 @@
       <c r="A242" s="1">
         <v>235</v>
       </c>
-      <c r="B242" s="19" t="s">
-        <v>1677</v>
+      <c r="B242" s="22" t="s">
+        <v>1670</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E242" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F242" s="24" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="G242" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H242" s="22" t="s">
         <v>155</v>
@@ -15844,30 +15875,30 @@
         <v>249</v>
       </c>
       <c r="J242" s="25" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>236</v>
       </c>
-      <c r="B243" s="19" t="s">
-        <v>1678</v>
+      <c r="B243" s="22" t="s">
+        <v>1671</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E243" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F243" s="24" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="G243" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H243" s="22" t="s">
         <v>155</v>
@@ -15876,30 +15907,30 @@
         <v>249</v>
       </c>
       <c r="J243" s="25" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>237</v>
       </c>
-      <c r="B244" s="19" t="s">
-        <v>1679</v>
+      <c r="B244" s="22" t="s">
+        <v>1672</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E244" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F244" s="24" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="G244" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H244" s="22" t="s">
         <v>155</v>
@@ -15913,23 +15944,23 @@
       <c r="A245" s="1">
         <v>238</v>
       </c>
-      <c r="B245" s="19" t="s">
-        <v>1680</v>
+      <c r="B245" s="22" t="s">
+        <v>1673</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E245" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F245" s="24" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="G245" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H245" s="22" t="s">
         <v>155</v>
@@ -15943,23 +15974,23 @@
       <c r="A246" s="1">
         <v>239</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="22" t="s">
         <v>992</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E246" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F246" s="24" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="G246" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H246" s="22" t="s">
         <v>155</v>
@@ -15968,30 +15999,30 @@
         <v>249</v>
       </c>
       <c r="J246" s="25" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>240</v>
       </c>
-      <c r="B247" s="19" t="s">
-        <v>1681</v>
+      <c r="B247" s="22" t="s">
+        <v>1674</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E247" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="G247" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H247" s="22" t="s">
         <v>155</v>
@@ -16005,23 +16036,23 @@
       <c r="A248" s="1">
         <v>241</v>
       </c>
-      <c r="B248" s="19" t="s">
-        <v>1682</v>
+      <c r="B248" s="22" t="s">
+        <v>1675</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E248" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="G248" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H248" s="22" t="s">
         <v>155</v>
@@ -16035,23 +16066,23 @@
       <c r="A249" s="1">
         <v>242</v>
       </c>
-      <c r="B249" s="19" t="s">
-        <v>1683</v>
+      <c r="B249" s="22" t="s">
+        <v>1676</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E249" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F249" s="24" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="G249" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H249" s="22" t="s">
         <v>155</v>
@@ -16065,23 +16096,23 @@
       <c r="A250" s="1">
         <v>243</v>
       </c>
-      <c r="B250" s="19" t="s">
-        <v>1684</v>
+      <c r="B250" s="22" t="s">
+        <v>1677</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E250" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F250" s="24" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="G250" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H250" s="22" t="s">
         <v>155</v>
@@ -16095,23 +16126,23 @@
       <c r="A251" s="1">
         <v>244</v>
       </c>
-      <c r="B251" s="19" t="s">
-        <v>1685</v>
+      <c r="B251" s="22" t="s">
+        <v>1678</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E251" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F251" s="24" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="G251" s="22" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H251" s="22" t="s">
         <v>155</v>
@@ -16125,23 +16156,23 @@
       <c r="A252" s="1">
         <v>245</v>
       </c>
-      <c r="B252" s="19" t="s">
-        <v>1686</v>
+      <c r="B252" s="22" t="s">
+        <v>1679</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E252" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F252" s="24" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="G252" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H252" s="22" t="s">
         <v>155</v>
@@ -16155,23 +16186,23 @@
       <c r="A253" s="1">
         <v>246</v>
       </c>
-      <c r="B253" s="19" t="s">
-        <v>1687</v>
+      <c r="B253" s="22" t="s">
+        <v>1680</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E253" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="G253" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H253" s="22" t="s">
         <v>155</v>
@@ -16185,23 +16216,23 @@
       <c r="A254" s="1">
         <v>247</v>
       </c>
-      <c r="B254" s="19" t="s">
-        <v>1688</v>
+      <c r="B254" s="22" t="s">
+        <v>1681</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E254" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F254" s="24" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="G254" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H254" s="22" t="s">
         <v>155</v>
@@ -16215,23 +16246,23 @@
       <c r="A255" s="1">
         <v>248</v>
       </c>
-      <c r="B255" s="19" t="s">
+      <c r="B255" s="22" t="s">
         <v>1130</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E255" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F255" s="24" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="G255" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H255" s="22" t="s">
         <v>155</v>
@@ -16240,30 +16271,30 @@
         <v>249</v>
       </c>
       <c r="J255" s="25" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>249</v>
       </c>
-      <c r="B256" s="19" t="s">
+      <c r="B256" s="22" t="s">
         <v>1132</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E256" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F256" s="24" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="G256" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H256" s="22" t="s">
         <v>155</v>
@@ -16272,30 +16303,30 @@
         <v>249</v>
       </c>
       <c r="J256" s="25" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>250</v>
       </c>
-      <c r="B257" s="19" t="s">
-        <v>1689</v>
+      <c r="B257" s="22" t="s">
+        <v>1682</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E257" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F257" s="24" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="G257" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H257" s="22" t="s">
         <v>155</v>
@@ -16309,23 +16340,23 @@
       <c r="A258" s="1">
         <v>251</v>
       </c>
-      <c r="B258" s="19" t="s">
-        <v>1690</v>
+      <c r="B258" s="22" t="s">
+        <v>1683</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E258" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F258" s="24" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="G258" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H258" s="22" t="s">
         <v>155</v>
@@ -16339,23 +16370,23 @@
       <c r="A259" s="1">
         <v>252</v>
       </c>
-      <c r="B259" s="19" t="s">
-        <v>1691</v>
+      <c r="B259" s="22" t="s">
+        <v>1684</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E259" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F259" s="24" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="G259" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H259" s="22" t="s">
         <v>155</v>
@@ -16369,23 +16400,23 @@
       <c r="A260" s="1">
         <v>253</v>
       </c>
-      <c r="B260" s="19" t="s">
-        <v>1692</v>
+      <c r="B260" s="22" t="s">
+        <v>1685</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E260" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F260" s="24" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="G260" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H260" s="22" t="s">
         <v>155</v>
@@ -16399,23 +16430,23 @@
       <c r="A261" s="1">
         <v>254</v>
       </c>
-      <c r="B261" s="19" t="s">
-        <v>1693</v>
+      <c r="B261" s="22" t="s">
+        <v>1686</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E261" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F261" s="24" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="G261" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H261" s="22" t="s">
         <v>155</v>
@@ -16429,23 +16460,23 @@
       <c r="A262" s="1">
         <v>255</v>
       </c>
-      <c r="B262" s="19" t="s">
-        <v>1694</v>
+      <c r="B262" s="22" t="s">
+        <v>1687</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E262" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F262" s="24" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="G262" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H262" s="22" t="s">
         <v>155</v>
@@ -16459,23 +16490,23 @@
       <c r="A263" s="1">
         <v>256</v>
       </c>
-      <c r="B263" s="19" t="s">
-        <v>1695</v>
+      <c r="B263" s="22" t="s">
+        <v>1688</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E263" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F263" s="24" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="G263" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H263" s="22" t="s">
         <v>155</v>
@@ -16489,23 +16520,23 @@
       <c r="A264" s="1">
         <v>257</v>
       </c>
-      <c r="B264" s="19" t="s">
-        <v>1696</v>
+      <c r="B264" s="22" t="s">
+        <v>1689</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E264" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F264" s="24" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="G264" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H264" s="22" t="s">
         <v>155</v>
@@ -16519,23 +16550,23 @@
       <c r="A265" s="1">
         <v>258</v>
       </c>
-      <c r="B265" s="19" t="s">
-        <v>1677</v>
+      <c r="B265" s="22" t="s">
+        <v>1670</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E265" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F265" s="24" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="G265" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H265" s="22" t="s">
         <v>155</v>
@@ -16544,30 +16575,30 @@
         <v>249</v>
       </c>
       <c r="J265" s="25" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>259</v>
       </c>
-      <c r="B266" s="19" t="s">
-        <v>1697</v>
+      <c r="B266" s="22" t="s">
+        <v>1690</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E266" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F266" s="24" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="G266" s="22" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H266" s="22" t="s">
         <v>155</v>
@@ -16581,23 +16612,23 @@
       <c r="A267" s="1">
         <v>260</v>
       </c>
-      <c r="B267" s="19" t="s">
-        <v>1698</v>
+      <c r="B267" s="22" t="s">
+        <v>1691</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="D267" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E267" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F267" s="24" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H267" s="22" t="s">
         <v>155</v>
@@ -16611,23 +16642,23 @@
       <c r="A268" s="1">
         <v>261</v>
       </c>
-      <c r="B268" s="19" t="s">
+      <c r="B268" s="22" t="s">
         <v>1015</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="D268" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H268" s="22" t="s">
         <v>155</v>
@@ -16641,23 +16672,23 @@
       <c r="A269" s="1">
         <v>262</v>
       </c>
-      <c r="B269" s="19" t="s">
-        <v>1699</v>
+      <c r="B269" s="22" t="s">
+        <v>1692</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E269" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F269" s="24" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H269" s="22" t="s">
         <v>155</v>
@@ -16671,23 +16702,23 @@
       <c r="A270" s="1">
         <v>263</v>
       </c>
-      <c r="B270" s="19" t="s">
-        <v>1672</v>
+      <c r="B270" s="22" t="s">
+        <v>1665</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F270" s="24" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H270" s="22" t="s">
         <v>155</v>
@@ -16701,23 +16732,23 @@
       <c r="A271" s="1">
         <v>264</v>
       </c>
-      <c r="B271" s="19" t="s">
-        <v>1700</v>
+      <c r="B271" s="22" t="s">
+        <v>1693</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E271" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F271" s="24" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H271" s="22" t="s">
         <v>155</v>
@@ -16731,23 +16762,23 @@
       <c r="A272" s="1">
         <v>265</v>
       </c>
-      <c r="B272" s="19" t="s">
-        <v>1701</v>
+      <c r="B272" s="22" t="s">
+        <v>1694</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E272" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H272" s="22" t="s">
         <v>155</v>
@@ -16761,23 +16792,23 @@
       <c r="A273" s="1">
         <v>266</v>
       </c>
-      <c r="B273" s="19" t="s">
+      <c r="B273" s="22" t="s">
         <v>1019</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="D273" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E273" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F273" s="24" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H273" s="22" t="s">
         <v>155</v>
@@ -16791,23 +16822,23 @@
       <c r="A274" s="1">
         <v>267</v>
       </c>
-      <c r="B274" s="19" t="s">
-        <v>1702</v>
+      <c r="B274" s="22" t="s">
+        <v>1695</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E274" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F274" s="24" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H274" s="22" t="s">
         <v>155</v>
@@ -16821,23 +16852,23 @@
       <c r="A275" s="1">
         <v>268</v>
       </c>
-      <c r="B275" s="19" t="s">
-        <v>1703</v>
+      <c r="B275" s="22" t="s">
+        <v>1696</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E275" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H275" s="22" t="s">
         <v>155</v>
@@ -16851,23 +16882,23 @@
       <c r="A276" s="1">
         <v>269</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>1704</v>
+      <c r="B276" s="22" t="s">
+        <v>1697</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E276" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H276" s="22" t="s">
         <v>155</v>
@@ -16881,23 +16912,23 @@
       <c r="A277" s="1">
         <v>270</v>
       </c>
-      <c r="B277" s="19" t="s">
+      <c r="B277" s="22" t="s">
         <v>1023</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E277" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H277" s="22" t="s">
         <v>155</v>
@@ -16906,30 +16937,30 @@
         <v>249</v>
       </c>
       <c r="J277" s="25" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>271</v>
       </c>
-      <c r="B278" s="19" t="s">
+      <c r="B278" s="22" t="s">
         <v>1032</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="D278" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E278" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="G278" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H278" s="22" t="s">
         <v>155</v>
@@ -16938,30 +16969,30 @@
         <v>249</v>
       </c>
       <c r="J278" s="25" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>272</v>
       </c>
-      <c r="B279" s="19" t="s">
-        <v>1705</v>
+      <c r="B279" s="22" t="s">
+        <v>1698</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="D279" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E279" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="G279" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H279" s="22" t="s">
         <v>155</v>
@@ -16975,23 +17006,23 @@
       <c r="A280" s="1">
         <v>273</v>
       </c>
-      <c r="B280" s="19" t="s">
-        <v>1706</v>
+      <c r="B280" s="22" t="s">
+        <v>1699</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E280" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="G280" s="22" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H280" s="22" t="s">
         <v>155</v>
@@ -17005,23 +17036,23 @@
       <c r="A281" s="1">
         <v>274</v>
       </c>
-      <c r="B281" s="19" t="s">
+      <c r="B281" s="22" t="s">
         <v>999</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="D281" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E281" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="G281" s="22" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H281" s="22" t="s">
         <v>155</v>
@@ -17035,23 +17066,23 @@
       <c r="A282" s="1">
         <v>275</v>
       </c>
-      <c r="B282" s="19" t="s">
-        <v>1707</v>
+      <c r="B282" s="22" t="s">
+        <v>1700</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="D282" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E282" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="G282" s="22" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H282" s="22" t="s">
         <v>155</v>
@@ -17065,23 +17096,23 @@
       <c r="A283" s="1">
         <v>276</v>
       </c>
-      <c r="B283" s="19" t="s">
-        <v>1708</v>
+      <c r="B283" s="22" t="s">
+        <v>1701</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E283" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="G283" s="22" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H283" s="22" t="s">
         <v>155</v>
@@ -17095,23 +17126,23 @@
       <c r="A284" s="1">
         <v>277</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>1709</v>
+      <c r="B284" s="22" t="s">
+        <v>1702</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E284" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="G284" s="22" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H284" s="22" t="s">
         <v>155</v>
@@ -17125,23 +17156,23 @@
       <c r="A285" s="1">
         <v>278</v>
       </c>
-      <c r="B285" s="19" t="s">
+      <c r="B285" s="22" t="s">
         <v>1265</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E285" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="G285" s="22" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H285" s="22" t="s">
         <v>155</v>
@@ -17155,23 +17186,23 @@
       <c r="A286" s="1">
         <v>279</v>
       </c>
-      <c r="B286" s="19" t="s">
+      <c r="B286" s="22" t="s">
         <v>1266</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="D286" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E286" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="G286" s="22" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H286" s="22" t="s">
         <v>155</v>
@@ -17185,23 +17216,23 @@
       <c r="A287" s="1">
         <v>280</v>
       </c>
-      <c r="B287" s="19" t="s">
+      <c r="B287" s="22" t="s">
         <v>1278</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E287" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="G287" s="22" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H287" s="22" t="s">
         <v>155</v>
@@ -17215,23 +17246,23 @@
       <c r="A288" s="1">
         <v>281</v>
       </c>
-      <c r="B288" s="19" t="s">
-        <v>1710</v>
+      <c r="B288" s="22" t="s">
+        <v>1703</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E288" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="G288" s="22" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H288" s="22" t="s">
         <v>155</v>
@@ -17245,23 +17276,23 @@
       <c r="A289" s="1">
         <v>282</v>
       </c>
-      <c r="B289" s="19" t="s">
-        <v>1711</v>
+      <c r="B289" s="22" t="s">
+        <v>1704</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="D289" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E289" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="G289" s="22" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H289" s="22" t="s">
         <v>155</v>
@@ -17275,23 +17306,23 @@
       <c r="A290" s="1">
         <v>283</v>
       </c>
-      <c r="B290" s="19" t="s">
+      <c r="B290" s="22" t="s">
         <v>1133</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="D290" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E290" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="G290" s="22" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H290" s="22" t="s">
         <v>155</v>
@@ -17305,23 +17336,23 @@
       <c r="A291" s="1">
         <v>284</v>
       </c>
-      <c r="B291" s="19" t="s">
-        <v>1712</v>
+      <c r="B291" s="22" t="s">
+        <v>1705</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E291" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F291" s="24" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="G291" s="22" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H291" s="22" t="s">
         <v>155</v>
@@ -17335,23 +17366,23 @@
       <c r="A292" s="1">
         <v>285</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>1713</v>
+      <c r="B292" s="22" t="s">
+        <v>1706</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E292" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F292" s="24" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H292" s="22" t="s">
         <v>155</v>
@@ -17365,23 +17396,23 @@
       <c r="A293" s="1">
         <v>286</v>
       </c>
-      <c r="B293" s="19" t="s">
-        <v>1714</v>
+      <c r="B293" s="22" t="s">
+        <v>1707</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E293" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F293" s="24" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="G293" s="22" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H293" s="22" t="s">
         <v>155</v>
@@ -17395,23 +17426,23 @@
       <c r="A294" s="1">
         <v>287</v>
       </c>
-      <c r="B294" s="19" t="s">
-        <v>1715</v>
+      <c r="B294" s="22" t="s">
+        <v>1708</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E294" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F294" s="24" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="G294" s="22" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H294" s="22" t="s">
         <v>155</v>
@@ -17425,23 +17456,23 @@
       <c r="A295" s="1">
         <v>288</v>
       </c>
-      <c r="B295" s="19" t="s">
-        <v>1716</v>
+      <c r="B295" s="22" t="s">
+        <v>1709</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E295" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F295" s="24" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="G295" s="22" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H295" s="22" t="s">
         <v>155</v>
@@ -17456,22 +17487,22 @@
         <v>289</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E296" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F296" s="24" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="G296" s="22" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H296" s="22" t="s">
         <v>155</v>
@@ -17480,30 +17511,30 @@
         <v>249</v>
       </c>
       <c r="J296" s="25" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>290</v>
       </c>
-      <c r="B297" s="19" t="s">
-        <v>1717</v>
+      <c r="B297" s="22" t="s">
+        <v>1710</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E297" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F297" s="24" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="G297" s="22" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H297" s="22" t="s">
         <v>155</v>
@@ -17517,23 +17548,23 @@
       <c r="A298" s="1">
         <v>291</v>
       </c>
-      <c r="B298" s="19" t="s">
-        <v>1718</v>
+      <c r="B298" s="22" t="s">
+        <v>1711</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E298" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F298" s="24" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="G298" s="22" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H298" s="22" t="s">
         <v>155</v>
@@ -17547,23 +17578,23 @@
       <c r="A299" s="1">
         <v>292</v>
       </c>
-      <c r="B299" s="19" t="s">
+      <c r="B299" s="22" t="s">
         <v>1285</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E299" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F299" s="24" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="G299" s="22" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H299" s="22" t="s">
         <v>155</v>
@@ -17577,23 +17608,23 @@
       <c r="A300" s="1">
         <v>293</v>
       </c>
-      <c r="B300" s="19" t="s">
-        <v>1677</v>
+      <c r="B300" s="22" t="s">
+        <v>1670</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E300" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F300" s="24" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="G300" s="22" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H300" s="22" t="s">
         <v>155</v>
@@ -17602,30 +17633,30 @@
         <v>249</v>
       </c>
       <c r="J300" s="25" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>294</v>
       </c>
-      <c r="B301" s="19" t="s">
-        <v>1719</v>
+      <c r="B301" s="22" t="s">
+        <v>1712</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E301" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F301" s="24" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="G301" s="22" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H301" s="22" t="s">
         <v>155</v>
@@ -17639,32 +17670,32 @@
       <c r="A302" s="1">
         <v>295</v>
       </c>
-      <c r="B302" s="19" t="s">
+      <c r="B302" s="22" t="s">
         <v>1021</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E302" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="G302" s="22" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H302" s="22" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>249</v>
       </c>
       <c r="J302" s="25" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -17675,16 +17706,16 @@
         <v>15</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E303" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G303" s="22" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="H303" s="22" t="s">
         <v>155</v>
@@ -17705,13 +17736,13 @@
         <v>204</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E304" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G304" s="22" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H304" s="22" t="s">
         <v>155</v>
@@ -17732,13 +17763,13 @@
         <v>509</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E305" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G305" s="22" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="H305" s="22" t="s">
         <v>155</v>
@@ -17756,16 +17787,16 @@
         <v>1256</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E306" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G306" s="22" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="H306" s="22" t="s">
         <v>155</v>
@@ -17783,16 +17814,16 @@
         <v>1257</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E307" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G307" s="22" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="H307" s="22" t="s">
         <v>155</v>
@@ -17810,16 +17841,16 @@
         <v>1258</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E308" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G308" s="22" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="H308" s="22" t="s">
         <v>155</v>
@@ -17837,16 +17868,16 @@
         <v>1259</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E309" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G309" s="22" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="H309" s="22" t="s">
         <v>155</v>
@@ -17864,16 +17895,16 @@
         <v>1260</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G310" s="22" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="H310" s="22" t="s">
         <v>155</v>
@@ -17891,16 +17922,16 @@
         <v>1261</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="D311" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E311" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G311" s="22" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="H311" s="22" t="s">
         <v>155</v>
@@ -17918,16 +17949,16 @@
         <v>1262</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E312" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G312" s="22" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="H312" s="22" t="s">
         <v>155</v>
@@ -17945,16 +17976,16 @@
         <v>1263</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E313" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G313" s="22" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="H313" s="22" t="s">
         <v>155</v>
@@ -17972,16 +18003,16 @@
         <v>1264</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="D314" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E314" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G314" s="22" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="H314" s="22" t="s">
         <v>155</v>
@@ -17999,16 +18030,16 @@
         <v>1265</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="D315" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E315" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G315" s="22" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="H315" s="22" t="s">
         <v>155</v>
@@ -18017,7 +18048,7 @@
         <v>249</v>
       </c>
       <c r="J315" s="25" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -18028,16 +18059,16 @@
         <v>1266</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E316" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G316" s="22" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="H316" s="22" t="s">
         <v>155</v>
@@ -18046,7 +18077,7 @@
         <v>249</v>
       </c>
       <c r="J316" s="25" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -18057,16 +18088,16 @@
         <v>1267</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="D317" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E317" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G317" s="22" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="H317" s="22" t="s">
         <v>155</v>
@@ -18084,16 +18115,16 @@
         <v>1268</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G318" s="22" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="H318" s="22" t="s">
         <v>155</v>
@@ -18111,16 +18142,16 @@
         <v>1269</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E319" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G319" s="22" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="H319" s="22" t="s">
         <v>155</v>
@@ -18134,20 +18165,20 @@
       <c r="A320" s="1">
         <v>313</v>
       </c>
-      <c r="B320" s="19" t="s">
-        <v>1720</v>
+      <c r="B320" s="22" t="s">
+        <v>1713</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E320" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G320" s="22" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="H320" s="22" t="s">
         <v>155</v>
@@ -18161,20 +18192,20 @@
       <c r="A321" s="1">
         <v>314</v>
       </c>
-      <c r="B321" s="19" t="s">
-        <v>1721</v>
+      <c r="B321" s="22" t="s">
+        <v>1714</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E321" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G321" s="22" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="H321" s="22" t="s">
         <v>155</v>
@@ -18188,20 +18219,20 @@
       <c r="A322" s="1">
         <v>315</v>
       </c>
-      <c r="B322" s="19" t="s">
-        <v>1722</v>
+      <c r="B322" s="22" t="s">
+        <v>1715</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E322" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G322" s="22" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="H322" s="22" t="s">
         <v>155</v>
@@ -18219,16 +18250,16 @@
         <v>1273</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="D323" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E323" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G323" s="22" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="H323" s="22" t="s">
         <v>155</v>
@@ -18246,16 +18277,16 @@
         <v>1274</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E324" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G324" s="22" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="H324" s="22" t="s">
         <v>155</v>
@@ -18273,16 +18304,16 @@
         <v>1275</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E325" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G325" s="22" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="H325" s="22" t="s">
         <v>155</v>
@@ -18300,16 +18331,16 @@
         <v>1276</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="D326" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E326" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G326" s="22" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="H326" s="22" t="s">
         <v>155</v>
@@ -18327,16 +18358,16 @@
         <v>1277</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="D327" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E327" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G327" s="22" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="H327" s="22" t="s">
         <v>155</v>
@@ -18354,16 +18385,16 @@
         <v>1278</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E328" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G328" s="22" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="H328" s="22" t="s">
         <v>155</v>
@@ -18372,7 +18403,7 @@
         <v>249</v>
       </c>
       <c r="J328" s="25" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -18383,16 +18414,16 @@
         <v>1279</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E329" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G329" s="22" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="H329" s="22" t="s">
         <v>155</v>
@@ -18410,16 +18441,16 @@
         <v>1280</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E330" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G330" s="22" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="H330" s="22" t="s">
         <v>155</v>
@@ -18437,16 +18468,16 @@
         <v>1281</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E331" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G331" s="22" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="H331" s="22" t="s">
         <v>155</v>
@@ -18464,16 +18495,16 @@
         <v>1282</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="D332" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E332" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G332" s="22" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="H332" s="22" t="s">
         <v>155</v>
@@ -18491,16 +18522,16 @@
         <v>1283</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E333" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G333" s="22" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="H333" s="22" t="s">
         <v>155</v>
@@ -18518,16 +18549,16 @@
         <v>1284</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E334" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G334" s="22" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="H334" s="22" t="s">
         <v>155</v>
@@ -18545,16 +18576,16 @@
         <v>1285</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E335" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G335" s="22" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="H335" s="22" t="s">
         <v>155</v>
@@ -18563,7 +18594,7 @@
         <v>249</v>
       </c>
       <c r="J335" s="25" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -18574,16 +18605,16 @@
         <v>1286</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E336" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G336" s="22" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="H336" s="22" t="s">
         <v>155</v>
@@ -18601,16 +18632,16 @@
         <v>1287</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E337" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G337" s="22" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="H337" s="22" t="s">
         <v>155</v>
@@ -18628,16 +18659,16 @@
         <v>1288</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E338" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G338" s="22" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="H338" s="22" t="s">
         <v>155</v>
@@ -18655,16 +18686,16 @@
         <v>1289</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="D339" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E339" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G339" s="22" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="H339" s="22" t="s">
         <v>155</v>
@@ -18682,16 +18713,16 @@
         <v>1290</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E340" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G340" s="22" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="H340" s="22" t="s">
         <v>155</v>
@@ -18709,16 +18740,16 @@
         <v>1291</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E341" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G341" s="22" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="H341" s="22" t="s">
         <v>155</v>
@@ -18736,16 +18767,16 @@
         <v>1292</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E342" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G342" s="22" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="H342" s="22" t="s">
         <v>155</v>
@@ -18763,16 +18794,16 @@
         <v>1293</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E343" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G343" s="22" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="H343" s="22" t="s">
         <v>155</v>
@@ -18790,16 +18821,16 @@
         <v>1294</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="D344" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G344" s="22" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="H344" s="22" t="s">
         <v>155</v>
@@ -18817,16 +18848,16 @@
         <v>1295</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E345" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G345" s="22" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="H345" s="22" t="s">
         <v>155</v>
@@ -18844,16 +18875,16 @@
         <v>1296</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E346" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G346" s="22" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="H346" s="22" t="s">
         <v>155</v>
@@ -18871,16 +18902,16 @@
         <v>1297</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E347" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G347" s="22" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="H347" s="22" t="s">
         <v>155</v>
@@ -18898,16 +18929,16 @@
         <v>1298</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E348" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G348" s="22" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="H348" s="22" t="s">
         <v>155</v>
@@ -18925,16 +18956,16 @@
         <v>1299</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E349" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G349" s="22" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="H349" s="22" t="s">
         <v>155</v>
@@ -18952,16 +18983,16 @@
         <v>1300</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E350" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G350" s="22" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="H350" s="22" t="s">
         <v>142</v>
@@ -18979,16 +19010,16 @@
         <v>1301</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E351" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G351" s="22" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="H351" s="22" t="s">
         <v>155</v>
@@ -19006,16 +19037,16 @@
         <v>1302</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E352" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G352" s="22" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="H352" s="22" t="s">
         <v>155</v>
@@ -19033,16 +19064,16 @@
         <v>1303</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E353" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G353" s="22" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="H353" s="22" t="s">
         <v>155</v>
@@ -19060,16 +19091,16 @@
         <v>1304</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E354" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G354" s="22" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>155</v>
@@ -19087,16 +19118,16 @@
         <v>1305</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E355" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G355" s="22" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="H355" s="22" t="s">
         <v>155</v>
@@ -19114,16 +19145,16 @@
         <v>1306</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E356" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G356" s="22" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="H356" s="22" t="s">
         <v>155</v>
@@ -19141,16 +19172,16 @@
         <v>1307</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E357" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G357" s="22" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>155</v>
@@ -19164,23 +19195,23 @@
       <c r="A358" s="1">
         <v>351</v>
       </c>
-      <c r="B358" s="19" t="s">
-        <v>1723</v>
+      <c r="B358" s="22" t="s">
+        <v>1716</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E358" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F358" s="24" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="G358" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H358" s="22" t="s">
         <v>155</v>
@@ -19194,23 +19225,23 @@
       <c r="A359" s="1">
         <v>352</v>
       </c>
-      <c r="B359" s="19" t="s">
+      <c r="B359" s="22" t="s">
         <v>1299</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E359" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F359" s="24" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="G359" s="22" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H359" s="22" t="s">
         <v>155</v>
@@ -19219,30 +19250,30 @@
         <v>249</v>
       </c>
       <c r="J359" s="25" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>353</v>
       </c>
-      <c r="B360" s="19" t="s">
-        <v>1724</v>
+      <c r="B360" s="22" t="s">
+        <v>1717</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E360" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F360" s="24" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="G360" s="22" t="s">
-        <v>1623</v>
+        <v>2248</v>
       </c>
       <c r="H360" s="22" t="s">
         <v>155</v>
@@ -19256,23 +19287,23 @@
       <c r="A361" s="1">
         <v>354</v>
       </c>
-      <c r="B361" s="19" t="s">
-        <v>1725</v>
+      <c r="B361" s="22" t="s">
+        <v>1718</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E361" s="23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F361" s="24" t="s">
         <v>1744</v>
       </c>
-      <c r="F361" s="24" t="s">
-        <v>1751</v>
-      </c>
       <c r="G361" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H361" s="22" t="s">
         <v>155</v>
@@ -19286,23 +19317,23 @@
       <c r="A362" s="1">
         <v>355</v>
       </c>
-      <c r="B362" s="19" t="s">
-        <v>1726</v>
+      <c r="B362" s="22" t="s">
+        <v>1719</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E362" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F362" s="24" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="G362" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H362" s="22" t="s">
         <v>155</v>
@@ -19316,23 +19347,23 @@
       <c r="A363" s="1">
         <v>356</v>
       </c>
-      <c r="B363" s="19" t="s">
-        <v>1727</v>
+      <c r="B363" s="22" t="s">
+        <v>1720</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E363" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F363" s="24" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="G363" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H363" s="22" t="s">
         <v>155</v>
@@ -19346,23 +19377,23 @@
       <c r="A364" s="1">
         <v>357</v>
       </c>
-      <c r="B364" s="19" t="s">
-        <v>1728</v>
+      <c r="B364" s="22" t="s">
+        <v>1721</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="D364" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E364" s="23" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F364" s="24" t="s">
         <v>1747</v>
       </c>
-      <c r="E364" s="23" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F364" s="24" t="s">
-        <v>1754</v>
-      </c>
       <c r="G364" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H364" s="22" t="s">
         <v>155</v>
@@ -19376,23 +19407,23 @@
       <c r="A365" s="1">
         <v>358</v>
       </c>
-      <c r="B365" s="19" t="s">
-        <v>1729</v>
+      <c r="B365" s="22" t="s">
+        <v>1722</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E365" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F365" s="24" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="G365" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H365" s="22" t="s">
         <v>155</v>
@@ -19406,23 +19437,23 @@
       <c r="A366" s="1">
         <v>359</v>
       </c>
-      <c r="B366" s="19" t="s">
-        <v>1730</v>
+      <c r="B366" s="22" t="s">
+        <v>1723</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E366" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F366" s="24" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="G366" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H366" s="22" t="s">
         <v>155</v>
@@ -19436,23 +19467,23 @@
       <c r="A367" s="1">
         <v>360</v>
       </c>
-      <c r="B367" s="19" t="s">
-        <v>1731</v>
+      <c r="B367" s="22" t="s">
+        <v>1724</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E367" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F367" s="24" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="G367" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H367" s="22" t="s">
         <v>155</v>
@@ -19466,23 +19497,23 @@
       <c r="A368" s="1">
         <v>361</v>
       </c>
-      <c r="B368" s="19" t="s">
-        <v>1732</v>
+      <c r="B368" s="22" t="s">
+        <v>1725</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E368" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F368" s="24" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="G368" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H368" s="22" t="s">
         <v>155</v>
@@ -19496,23 +19527,23 @@
       <c r="A369" s="1">
         <v>362</v>
       </c>
-      <c r="B369" s="19" t="s">
-        <v>1733</v>
+      <c r="B369" s="22" t="s">
+        <v>1726</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E369" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F369" s="24" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="G369" s="22" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="H369" s="22" t="s">
         <v>155</v>
@@ -19526,23 +19557,23 @@
       <c r="A370" s="1">
         <v>363</v>
       </c>
-      <c r="B370" s="19" t="s">
-        <v>1734</v>
+      <c r="B370" s="22" t="s">
+        <v>1727</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E370" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F370" s="24" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="G370" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H370" s="22" t="s">
         <v>155</v>
@@ -19556,23 +19587,23 @@
       <c r="A371" s="1">
         <v>364</v>
       </c>
-      <c r="B371" s="19" t="s">
-        <v>1735</v>
+      <c r="B371" s="22" t="s">
+        <v>1728</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E371" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F371" s="24" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="G371" s="22" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H371" s="22" t="s">
         <v>155</v>
@@ -19586,23 +19617,23 @@
       <c r="A372" s="1">
         <v>365</v>
       </c>
-      <c r="B372" s="19" t="s">
+      <c r="B372" s="22" t="s">
         <v>1291</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="D372" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E372" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F372" s="24" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="G372" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H372" s="22" t="s">
         <v>155</v>
@@ -19611,30 +19642,30 @@
         <v>249</v>
       </c>
       <c r="J372" s="25" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>366</v>
       </c>
-      <c r="B373" s="19" t="s">
-        <v>1736</v>
+      <c r="B373" s="22" t="s">
+        <v>1729</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E373" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F373" s="24" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="G373" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H373" s="22" t="s">
         <v>155</v>
@@ -19648,23 +19679,23 @@
       <c r="A374" s="1">
         <v>367</v>
       </c>
-      <c r="B374" s="19" t="s">
-        <v>1737</v>
+      <c r="B374" s="22" t="s">
+        <v>1730</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="D374" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E374" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F374" s="24" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="G374" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H374" s="22" t="s">
         <v>155</v>
@@ -19678,23 +19709,23 @@
       <c r="A375" s="1">
         <v>368</v>
       </c>
-      <c r="B375" s="19" t="s">
-        <v>1738</v>
+      <c r="B375" s="22" t="s">
+        <v>1731</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E375" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F375" s="24" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="G375" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H375" s="22" t="s">
         <v>155</v>
@@ -19708,23 +19739,23 @@
       <c r="A376" s="1">
         <v>369</v>
       </c>
-      <c r="B376" s="19" t="s">
-        <v>1739</v>
+      <c r="B376" s="22" t="s">
+        <v>1732</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E376" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F376" s="24" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="G376" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H376" s="22" t="s">
         <v>155</v>
@@ -19738,23 +19769,23 @@
       <c r="A377" s="1">
         <v>370</v>
       </c>
-      <c r="B377" s="19" t="s">
-        <v>1740</v>
+      <c r="B377" s="22" t="s">
+        <v>1733</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E377" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="F377" s="24" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="G377" s="22" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H377" s="22" t="s">
         <v>155</v>
@@ -19768,20 +19799,20 @@
       <c r="A378" s="1">
         <v>371</v>
       </c>
-      <c r="B378" s="19" t="s">
-        <v>1741</v>
+      <c r="B378" s="22" t="s">
+        <v>1734</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E378" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G378" s="22" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="H378" s="22" t="s">
         <v>155</v>
@@ -19795,20 +19826,20 @@
       <c r="A379" s="1">
         <v>372</v>
       </c>
-      <c r="B379" s="19" t="s">
-        <v>1742</v>
+      <c r="B379" s="22" t="s">
+        <v>1735</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="D379" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E379" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G379" s="22" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="H379" s="22" t="s">
         <v>155</v>
@@ -19822,20 +19853,20 @@
       <c r="A380" s="1">
         <v>373</v>
       </c>
-      <c r="B380" s="19" t="s">
-        <v>1743</v>
+      <c r="B380" s="22" t="s">
+        <v>1736</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="D380" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E380" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G380" s="22" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="H380" s="22" t="s">
         <v>155</v>
@@ -19853,16 +19884,16 @@
         <v>1331</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="D381" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E381" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G381" s="22" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="H381" s="22" t="s">
         <v>155</v>
@@ -19880,16 +19911,16 @@
         <v>1332</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="D382" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E382" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G382" s="22" t="s">
-        <v>1628</v>
+        <v>2245</v>
       </c>
       <c r="H382" s="22" t="s">
         <v>142</v>
@@ -19904,19 +19935,19 @@
         <v>376</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>1333</v>
+        <v>2251</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="D383" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E383" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G383" s="22" t="s">
-        <v>1629</v>
+        <v>2244</v>
       </c>
       <c r="H383" s="22" t="s">
         <v>142</v>
@@ -19934,16 +19965,16 @@
         <v>1334</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E384" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G384" s="22" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="H384" s="22" t="s">
         <v>155</v>
@@ -19961,16 +19992,16 @@
         <v>1335</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="D385" s="16" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="E385" s="23" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="G385" s="22" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="H385" s="22" t="s">
         <v>155</v>
